--- a/parabolic/2025/08/04/parabolic.xlsx
+++ b/parabolic/2025/08/04/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3908</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>399</v>
+        <v>871.9000244140625</v>
       </c>
       <c r="D2" t="n">
-        <v>647200</v>
+        <v>1293200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,16 +505,62 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D3" t="n">
-        <v>191900</v>
+        <v>206100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3908</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>406</v>
+      </c>
+      <c r="D4" t="n">
+        <v>776700</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>6535</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>632</v>
+      </c>
+      <c r="D5" t="n">
+        <v>300700</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/04/parabolic.xlsx
+++ b/parabolic/2025/08/04/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>871.9000244140625</v>
+        <v>867.9000244140625</v>
       </c>
       <c r="D2" t="n">
-        <v>1293200</v>
+        <v>1930600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="D3" t="n">
-        <v>206100</v>
+        <v>250300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3908</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>406</v>
+        <v>855</v>
       </c>
       <c r="D4" t="n">
-        <v>776700</v>
+        <v>375300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,16 +551,85 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>632</v>
+        <v>406</v>
       </c>
       <c r="D5" t="n">
-        <v>300700</v>
+        <v>776700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>4668</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>758</v>
+      </c>
+      <c r="D6" t="n">
+        <v>107800</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6535</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>627</v>
+      </c>
+      <c r="D7" t="n">
+        <v>379100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>9716</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>945</v>
+      </c>
+      <c r="D8" t="n">
+        <v>226800</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/04/parabolic.xlsx
+++ b/parabolic/2025/08/04/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>867.9000244140625</v>
+        <v>246</v>
       </c>
       <c r="D2" t="n">
-        <v>1930600</v>
+        <v>169100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3726</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>645</v>
+        <v>869.9000244140625</v>
       </c>
       <c r="D3" t="n">
-        <v>250300</v>
+        <v>3728900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3856</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>855</v>
+        <v>640</v>
       </c>
       <c r="D4" t="n">
-        <v>375300</v>
+        <v>288600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3908</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>406</v>
+        <v>870</v>
       </c>
       <c r="D5" t="n">
-        <v>776700</v>
+        <v>661200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4668</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>758</v>
+        <v>406</v>
       </c>
       <c r="D6" t="n">
-        <v>107800</v>
+        <v>902500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>4668</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>627</v>
+        <v>759</v>
       </c>
       <c r="D7" t="n">
-        <v>379100</v>
+        <v>118100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>9716</t>
+          <t>6535</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,16 +620,62 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>945</v>
+        <v>631</v>
       </c>
       <c r="D8" t="n">
-        <v>226800</v>
+        <v>455500</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>9514</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>372</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100500</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>9716</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>954</v>
+      </c>
+      <c r="D10" t="n">
+        <v>441100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
